--- a/InputData/scaling-factors.xlsx
+++ b/InputData/scaling-factors.xlsx
@@ -1,25 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.3.3-india-wipB4\InputData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\OneDrive\Desktop\Input Data for India 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1358FD-D1F5-4E57-AA39-93F0D5375C99}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8910"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Currency Conversion" sheetId="2" r:id="rId2"/>
     <sheet name="Population" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -124,7 +131,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -180,7 +187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -191,6 +198,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -471,10 +479,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -511,7 +521,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -546,15 +556,20 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{5B7F1FA2-F8C7-4037-ACF0-E478F29E7673}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -632,6 +647,14 @@
         <v>63.92</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2018</v>
+      </c>
+      <c r="B12" s="8">
+        <v>68.657300000000006</v>
+      </c>
+    </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
@@ -737,7 +760,7 @@
         <v>5.8599999999999999E-2</v>
       </c>
       <c r="C32" s="6">
-        <f t="shared" ref="C32:C35" si="0">C31*(1+B32)</f>
+        <f t="shared" ref="C32:C36" si="0">C31*(1+B32)</f>
         <v>1.1552501799999999</v>
       </c>
     </row>
@@ -777,16 +800,28 @@
         <v>1.3058783231350322</v>
       </c>
     </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2018</v>
+      </c>
+      <c r="B36" s="4">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="C36" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3743063472673078</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C26" r:id="rId1"/>
+    <hyperlink ref="C26" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/InputData/scaling-factors.xlsx
+++ b/InputData/scaling-factors.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\OneDrive\Desktop\Input Data for India 2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1358FD-D1F5-4E57-AA39-93F0D5375C99}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Currency Conversion" sheetId="2" r:id="rId2"/>
-    <sheet name="Population" sheetId="3" r:id="rId3"/>
+    <sheet name="GDP per capita" sheetId="4" r:id="rId3"/>
+    <sheet name="India Population" sheetId="3" r:id="rId4"/>
+    <sheet name="Capital Equipment Cost Scalar" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
   <si>
     <t>Scaling Factors</t>
   </si>
@@ -126,16 +127,128 @@
   </si>
   <si>
     <t>Ruppees per Crore</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>OECD</t>
+  </si>
+  <si>
+    <t>Quarterly National Accounts</t>
+  </si>
+  <si>
+    <t>https://data.oecd.org/gdp/gdp-long-term-forecast.htm</t>
+  </si>
+  <si>
+    <t>Real GDP long-term forecast</t>
+  </si>
+  <si>
+    <t>Unit: 2012 USD</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>GDP per Capita</t>
+  </si>
+  <si>
+    <t>GDP per capita</t>
+  </si>
+  <si>
+    <t>Ratio of India: US GDP per capita</t>
+  </si>
+  <si>
+    <t>GDP Forecasts</t>
+  </si>
+  <si>
+    <t>see files BGDP and BPEaCP in India and US EPS files for more information</t>
+  </si>
+  <si>
+    <t>For some capital equipment, such as battery storage, CCS, and hydrogen, we do not have India-specific cost data.</t>
+  </si>
+  <si>
+    <t>Therefore, we adjust the US costs for these files based on the ratio of average power plant construction costs for India vs. US.</t>
+  </si>
+  <si>
+    <t>Unit: $/MW</t>
+  </si>
+  <si>
+    <t>Hard Coal</t>
+  </si>
+  <si>
+    <t>Natural Gas Nonpeaker</t>
+  </si>
+  <si>
+    <t>Nuclear</t>
+  </si>
+  <si>
+    <t>Hydro</t>
+  </si>
+  <si>
+    <t>Onshore Wind</t>
+  </si>
+  <si>
+    <t>Solar PV</t>
+  </si>
+  <si>
+    <t>Solar Thermal</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>Geothermal</t>
+  </si>
+  <si>
+    <t>Petroleum</t>
+  </si>
+  <si>
+    <t>Natural Gas Peaker</t>
+  </si>
+  <si>
+    <t>Lignite</t>
+  </si>
+  <si>
+    <t>Offshore Wind</t>
+  </si>
+  <si>
+    <t>Crude Oil</t>
+  </si>
+  <si>
+    <t>Heavy or Residual Fuel Oil</t>
+  </si>
+  <si>
+    <t>Municipal Solid Waste</t>
+  </si>
+  <si>
+    <t>*repurposed as pumped hydro</t>
+  </si>
+  <si>
+    <t>India Capital Costs (see elec/CCaMC)</t>
+  </si>
+  <si>
+    <t>US Capital Costs (see elec/CCaMC in US EPA 3.1)</t>
+  </si>
+  <si>
+    <t>India:US Ratio</t>
+  </si>
+  <si>
+    <t>*exclude</t>
+  </si>
+  <si>
+    <t>Average Ratio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +268,21 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -183,11 +311,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -199,10 +329,32 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -479,111 +631,136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.265625" customWidth="1"/>
+    <col min="2" max="2" width="40.73046875" customWidth="1"/>
+    <col min="5" max="5" width="33.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E5" s="10">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E7" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E9" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{5B7F1FA2-F8C7-4037-ACF0-E478F29E7673}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="E7" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2010</v>
       </c>
@@ -591,7 +768,7 @@
         <v>44.81</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2011</v>
       </c>
@@ -599,7 +776,7 @@
         <v>53.26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -607,7 +784,7 @@
         <v>54.77</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -615,7 +792,7 @@
         <v>61.89</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -623,7 +800,7 @@
         <v>63.33</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -631,7 +808,7 @@
         <v>66.319999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -639,7 +816,7 @@
         <v>67.95</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -647,7 +824,7 @@
         <v>63.92</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -655,38 +832,38 @@
         <v>68.657300000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>100000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>10000000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23">
         <f>A19/A15</f>
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -694,7 +871,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -705,7 +882,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2010</v>
       </c>
@@ -717,7 +894,7 @@
         <v>0.84470208721577789</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2011</v>
       </c>
@@ -729,7 +906,7 @@
         <v>0.8995232526760818</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2012</v>
       </c>
@@ -740,7 +917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>2013</v>
       </c>
@@ -752,7 +929,7 @@
         <v>1.0912999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2014</v>
       </c>
@@ -764,7 +941,7 @@
         <v>1.1552501799999999</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>2015</v>
       </c>
@@ -776,7 +953,7 @@
         <v>1.2282619913759998</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>2016</v>
       </c>
@@ -788,7 +965,7 @@
         <v>1.2556522337836846</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>2017</v>
       </c>
@@ -800,7 +977,7 @@
         <v>1.3058783231350322</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>2018</v>
       </c>
@@ -814,24 +991,1226 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C26" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C26" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN89"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="3" width="17.86328125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="19" style="9" customWidth="1"/>
+    <col min="5" max="5" width="21.86328125" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="9.06640625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="E1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="J1" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A3" s="9">
+        <v>2019</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2582035401443.7754</v>
+      </c>
+      <c r="C3" s="9">
+        <f>B3/'India Population'!B24</f>
+        <v>1886.435096741506</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="9">
+        <v>2019</v>
+      </c>
+      <c r="F3" s="9">
+        <v>19260564565319.313</v>
+      </c>
+      <c r="G3" s="9">
+        <v>330268840</v>
+      </c>
+      <c r="H3" s="9">
+        <f>F3/G3</f>
+        <v>58317.837569294497</v>
+      </c>
+      <c r="J3" s="9">
+        <f>C3/H3</f>
+        <v>3.2347480211350491E-2</v>
+      </c>
+      <c r="AM3" s="9">
+        <v>2049</v>
+      </c>
+      <c r="AN3" s="9">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A4" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2781383385961.4736</v>
+      </c>
+      <c r="C4" s="9">
+        <f>B4/'India Population'!B25</f>
+        <v>2010.8353149451298</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="9">
+        <v>2020</v>
+      </c>
+      <c r="F4" s="9">
+        <v>19570694229280.551</v>
+      </c>
+      <c r="G4" s="9">
+        <v>332639102</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" ref="H4:H34" si="0">F4/G4</f>
+        <v>58834.61719205985</v>
+      </c>
+      <c r="J4" s="9">
+        <f t="shared" ref="J4:J34" si="1">C4/H4</f>
+        <v>3.4177758111027641E-2</v>
+      </c>
+      <c r="AM4" s="9">
+        <v>387418788</v>
+      </c>
+      <c r="AN4" s="9">
+        <v>388922201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A5" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B5" s="9">
+        <v>2984552111455.7139</v>
+      </c>
+      <c r="C5" s="9">
+        <f>B5/'India Population'!B26</f>
+        <v>2135.7542501130392</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="9">
+        <v>2021</v>
+      </c>
+      <c r="F5" s="9">
+        <v>19846925958285.945</v>
+      </c>
+      <c r="G5" s="9">
+        <v>334998398</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="0"/>
+        <v>59244.838413483834</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" si="1"/>
+        <v>3.6049625710970833E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A6" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B6" s="9">
+        <v>3191138824694.7207</v>
+      </c>
+      <c r="C6" s="9">
+        <f>B6/'India Population'!B27</f>
+        <v>2260.9500569957954</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="9">
+        <v>2022</v>
+      </c>
+      <c r="F6" s="9">
+        <v>20136856085592.691</v>
+      </c>
+      <c r="G6" s="9">
+        <v>337341954</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="0"/>
+        <v>59692.711940574969</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" si="1"/>
+        <v>3.7876484138408835E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A7" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B7" s="9">
+        <v>3401383723524.8545</v>
+      </c>
+      <c r="C7" s="9">
+        <f>B7/'India Population'!B28</f>
+        <v>2386.6713189168181</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="9">
+        <v>2023</v>
+      </c>
+      <c r="F7" s="9">
+        <v>20449876595278.277</v>
+      </c>
+      <c r="G7" s="9">
+        <v>339665118</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="0"/>
+        <v>60205.995586742225</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="1"/>
+        <v>3.9641754872705395E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A8" s="9">
+        <v>2024</v>
+      </c>
+      <c r="B8" s="9">
+        <v>3616355274228.2031</v>
+      </c>
+      <c r="C8" s="9">
+        <f>B8/'India Population'!B29</f>
+        <v>2513.7406459791423</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="9">
+        <v>2024</v>
+      </c>
+      <c r="F8" s="9">
+        <v>20785071453021.242</v>
+      </c>
+      <c r="G8" s="9">
+        <v>341963408</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="0"/>
+        <v>60781.566000246559</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="1"/>
+        <v>4.1356957567841302E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A9" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B9" s="9">
+        <v>3837063964296.3535</v>
+      </c>
+      <c r="C9" s="9">
+        <f>B9/'India Population'!B30</f>
+        <v>2642.9172886726697</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="9">
+        <v>2025</v>
+      </c>
+      <c r="F9" s="9">
+        <v>21137860487214.293</v>
+      </c>
+      <c r="G9" s="9">
+        <v>344234377</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="0"/>
+        <v>61405.431588299194</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="1"/>
+        <v>4.3040448056654933E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A10" s="9">
+        <v>2026</v>
+      </c>
+      <c r="B10" s="9">
+        <v>4063794165892.2388</v>
+      </c>
+      <c r="C10" s="9">
+        <f>B10/'India Population'!B31</f>
+        <v>2774.4398378210249</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="9">
+        <v>2026</v>
+      </c>
+      <c r="F10" s="9">
+        <v>21504884905345.414</v>
+      </c>
+      <c r="G10" s="9">
+        <v>346481182</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="0"/>
+        <v>62066.530658930315</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="1"/>
+        <v>4.4701062043683445E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A11" s="9">
+        <v>2027</v>
+      </c>
+      <c r="B11" s="9">
+        <v>4297009709339.8657</v>
+      </c>
+      <c r="C11" s="9">
+        <f>B11/'India Population'!B32</f>
+        <v>2908.6677082023743</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="9">
+        <v>2027</v>
+      </c>
+      <c r="F11" s="9">
+        <v>21883765124004.84</v>
+      </c>
+      <c r="G11" s="9">
+        <v>348695115</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="0"/>
+        <v>62759.024094744891</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="1"/>
+        <v>4.634660513221605E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A12" s="9">
+        <v>2028</v>
+      </c>
+      <c r="B12" s="9">
+        <v>4536884531010.7373</v>
+      </c>
+      <c r="C12" s="9">
+        <f>B12/'India Population'!B33</f>
+        <v>3045.7781506753563</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="9">
+        <v>2028</v>
+      </c>
+      <c r="F12" s="9">
+        <v>22272742778460.578</v>
+      </c>
+      <c r="G12" s="9">
+        <v>350872007</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="0"/>
+        <v>63478.255130397389</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="1"/>
+        <v>4.7981440958304568E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A13" s="9">
+        <v>2029</v>
+      </c>
+      <c r="B13" s="9">
+        <v>4783506979537.9971</v>
+      </c>
+      <c r="C13" s="9">
+        <f>B13/'India Population'!B34</f>
+        <v>3185.8994630153788</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="9">
+        <v>2029</v>
+      </c>
+      <c r="F13" s="9">
+        <v>22670459610925.633</v>
+      </c>
+      <c r="G13" s="9">
+        <v>353008224</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="0"/>
+        <v>64220.769006575982</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="1"/>
+        <v>4.9608553623659568E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A14" s="9">
+        <v>2030</v>
+      </c>
+      <c r="B14" s="9">
+        <v>5036890859395.5742</v>
+      </c>
+      <c r="C14" s="9">
+        <f>B14/'India Population'!B35</f>
+        <v>3329.1082591007671</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="9">
+        <v>2030</v>
+      </c>
+      <c r="F14" s="9">
+        <v>23076094349249.734</v>
+      </c>
+      <c r="G14" s="9">
+        <v>355100730</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" si="0"/>
+        <v>64984.643510166068</v>
+      </c>
+      <c r="J14" s="9">
+        <f t="shared" si="1"/>
+        <v>5.122915321648211E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A15" s="9">
+        <v>2031</v>
+      </c>
+      <c r="B15" s="9">
+        <v>5297025127004.3252</v>
+      </c>
+      <c r="C15" s="9">
+        <f>B15/'India Population'!B36</f>
+        <v>3475.4554924693302</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="9">
+        <v>2031</v>
+      </c>
+      <c r="F15" s="9">
+        <v>23489489056480.902</v>
+      </c>
+      <c r="G15" s="9">
+        <v>357147329</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="0"/>
+        <v>65769.745842004893</v>
+      </c>
+      <c r="J15" s="9">
+        <f t="shared" si="1"/>
+        <v>5.2842769087449865E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A16" s="9">
+        <v>2032</v>
+      </c>
+      <c r="B16" s="9">
+        <v>5563697193465.7471</v>
+      </c>
+      <c r="C16" s="9">
+        <f>B16/'India Population'!B37</f>
+        <v>3624.8677857626594</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="9">
+        <v>2032</v>
+      </c>
+      <c r="F16" s="9">
+        <v>23911159659995.598</v>
+      </c>
+      <c r="G16" s="9">
+        <v>359146709</v>
+      </c>
+      <c r="H16" s="9">
+        <f t="shared" si="0"/>
+        <v>66577.693908356538</v>
+      </c>
+      <c r="J16" s="9">
+        <f t="shared" si="1"/>
+        <v>5.4445679520715301E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17" s="9">
+        <v>2033</v>
+      </c>
+      <c r="B17" s="9">
+        <v>5836931906832.9121</v>
+      </c>
+      <c r="C17" s="9">
+        <f>B17/'India Population'!B38</f>
+        <v>3777.4506840733729</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="9">
+        <v>2033</v>
+      </c>
+      <c r="F17" s="9">
+        <v>24342022194115.273</v>
+      </c>
+      <c r="G17" s="9">
+        <v>361098559</v>
+      </c>
+      <c r="H17" s="9">
+        <f t="shared" si="0"/>
+        <v>67411.020031556734</v>
+      </c>
+      <c r="J17" s="9">
+        <f t="shared" si="1"/>
+        <v>5.6036100363190719E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" s="9">
+        <v>2034</v>
+      </c>
+      <c r="B18" s="9">
+        <v>6116643679367.4629</v>
+      </c>
+      <c r="C18" s="9">
+        <f>B18/'India Population'!B39</f>
+        <v>3933.2597346084408</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="9">
+        <v>2034</v>
+      </c>
+      <c r="F18" s="9">
+        <v>24783055867942.18</v>
+      </c>
+      <c r="G18" s="9">
+        <v>363003410</v>
+      </c>
+      <c r="H18" s="9">
+        <f t="shared" si="0"/>
+        <v>68272.239833620784</v>
+      </c>
+      <c r="J18" s="9">
+        <f t="shared" si="1"/>
+        <v>5.7611406102887223E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" s="9">
+        <v>2035</v>
+      </c>
+      <c r="B19" s="9">
+        <v>6402664096487.4658</v>
+      </c>
+      <c r="C19" s="9">
+        <f>B19/'India Population'!B40</f>
+        <v>4092.2835644857473</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="9">
+        <v>2035</v>
+      </c>
+      <c r="F19" s="9">
+        <v>25235197774058.039</v>
+      </c>
+      <c r="G19" s="9">
+        <v>364862145</v>
+      </c>
+      <c r="H19" s="9">
+        <f t="shared" si="0"/>
+        <v>69163.650216599039</v>
+      </c>
+      <c r="J19" s="9">
+        <f t="shared" si="1"/>
+        <v>5.9168125911081733E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20" s="9">
+        <v>2036</v>
+      </c>
+      <c r="B20" s="9">
+        <v>6694838548084.9199</v>
+      </c>
+      <c r="C20" s="9">
+        <f>B20/'India Population'!B41</f>
+        <v>4254.5215616885043</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="9">
+        <v>2036</v>
+      </c>
+      <c r="F20" s="9">
+        <v>25699353417654.18</v>
+      </c>
+      <c r="G20" s="9">
+        <v>366676312</v>
+      </c>
+      <c r="H20" s="9">
+        <f t="shared" si="0"/>
+        <v>70087.302006174257</v>
+      </c>
+      <c r="J20" s="9">
+        <f t="shared" si="1"/>
+        <v>6.0703172185365438E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21" s="9">
+        <v>2037</v>
+      </c>
+      <c r="B21" s="9">
+        <v>6993194643107.6826</v>
+      </c>
+      <c r="C21" s="9">
+        <f>B21/'India Population'!B42</f>
+        <v>4420.0663042736751</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="9">
+        <v>2037</v>
+      </c>
+      <c r="F21" s="9">
+        <v>26176480949572.586</v>
+      </c>
+      <c r="G21" s="9">
+        <v>368447857</v>
+      </c>
+      <c r="H21" s="9">
+        <f t="shared" si="0"/>
+        <v>71045.279412692005</v>
+      </c>
+      <c r="J21" s="9">
+        <f t="shared" si="1"/>
+        <v>6.2214778248645256E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A22" s="9">
+        <v>2038</v>
+      </c>
+      <c r="B22" s="9">
+        <v>7297801403925.3984</v>
+      </c>
+      <c r="C22" s="9">
+        <f>B22/'India Population'!B43</f>
+        <v>4588.9983059139186</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="9">
+        <v>2038</v>
+      </c>
+      <c r="F22" s="9">
+        <v>26667317408922.48</v>
+      </c>
+      <c r="G22" s="9">
+        <v>370178704</v>
+      </c>
+      <c r="H22" s="9">
+        <f t="shared" si="0"/>
+        <v>72039.037148183648</v>
+      </c>
+      <c r="J22" s="9">
+        <f t="shared" si="1"/>
+        <v>6.3701549709422003E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A23" s="9">
+        <v>2039</v>
+      </c>
+      <c r="B23" s="9">
+        <v>7608661591432.8525</v>
+      </c>
+      <c r="C23" s="9">
+        <f>B23/'India Population'!B44</f>
+        <v>4761.3324260176259</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="9">
+        <v>2039</v>
+      </c>
+      <c r="F23" s="9">
+        <v>27172315548299.516</v>
+      </c>
+      <c r="G23" s="9">
+        <v>371871238</v>
+      </c>
+      <c r="H23" s="9">
+        <f t="shared" si="0"/>
+        <v>73069.150748086395</v>
+      </c>
+      <c r="J23" s="9">
+        <f t="shared" si="1"/>
+        <v>6.5162005816008756E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A24" s="9">
+        <v>2040</v>
+      </c>
+      <c r="B24" s="9">
+        <v>7925719987734.3281</v>
+      </c>
+      <c r="C24" s="9">
+        <f>B24/'India Population'!B45</f>
+        <v>4937.0482234061028</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="9">
+        <v>2040</v>
+      </c>
+      <c r="F24" s="9">
+        <v>27691759654217.266</v>
+      </c>
+      <c r="G24" s="9">
+        <v>373527973</v>
+      </c>
+      <c r="H24" s="9">
+        <f t="shared" si="0"/>
+        <v>74135.705103449553</v>
+      </c>
+      <c r="J24" s="9">
+        <f t="shared" si="1"/>
+        <v>6.6594742931451262E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A25" s="9">
+        <v>2041</v>
+      </c>
+      <c r="B25" s="9">
+        <v>8248926896723.6846</v>
+      </c>
+      <c r="C25" s="9">
+        <f>B25/'India Population'!B46</f>
+        <v>5116.1846883519929</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="9">
+        <v>2041</v>
+      </c>
+      <c r="F25" s="9">
+        <v>28225881367538.613</v>
+      </c>
+      <c r="G25" s="9">
+        <v>375151805</v>
+      </c>
+      <c r="H25" s="9">
+        <f t="shared" si="0"/>
+        <v>75238.559408073794</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" si="1"/>
+        <v>6.7999503560444027E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A26" s="9">
+        <v>2042</v>
+      </c>
+      <c r="B26" s="9">
+        <v>8578450732982.8516</v>
+      </c>
+      <c r="C26" s="9">
+        <f>B26/'India Population'!B47</f>
+        <v>5298.9183639957182</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="9">
+        <v>2042</v>
+      </c>
+      <c r="F26" s="9">
+        <v>28774996562167.52</v>
+      </c>
+      <c r="G26" s="9">
+        <v>376746115</v>
+      </c>
+      <c r="H26" s="9">
+        <f t="shared" si="0"/>
+        <v>76377.686236173977</v>
+      </c>
+      <c r="J26" s="9">
+        <f t="shared" si="1"/>
+        <v>6.9377833044201934E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A27" s="9">
+        <v>2043</v>
+      </c>
+      <c r="B27" s="9">
+        <v>8914448867514.6172</v>
+      </c>
+      <c r="C27" s="9">
+        <f>B27/'India Population'!B48</f>
+        <v>5485.3994851556572</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="9">
+        <v>2043</v>
+      </c>
+      <c r="F27" s="9">
+        <v>29339157883754.633</v>
+      </c>
+      <c r="G27" s="9">
+        <v>378314343</v>
+      </c>
+      <c r="H27" s="9">
+        <f t="shared" si="0"/>
+        <v>77552.327651914151</v>
+      </c>
+      <c r="J27" s="9">
+        <f t="shared" si="1"/>
+        <v>7.0731590543308034E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A28" s="9">
+        <v>2044</v>
+      </c>
+      <c r="B28" s="9">
+        <v>9256940626582.4805</v>
+      </c>
+      <c r="C28" s="9">
+        <f>B28/'India Population'!B49</f>
+        <v>5675.6783797894277</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="9">
+        <v>2044</v>
+      </c>
+      <c r="F28" s="9">
+        <v>29918091574916.535</v>
+      </c>
+      <c r="G28" s="9">
+        <v>379860859</v>
+      </c>
+      <c r="H28" s="9">
+        <f t="shared" si="0"/>
+        <v>78760.65897833537</v>
+      </c>
+      <c r="J28" s="9">
+        <f t="shared" si="1"/>
+        <v>7.2062352618845305E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A29" s="9">
+        <v>2045</v>
+      </c>
+      <c r="B29" s="9">
+        <v>9605796248131.5117</v>
+      </c>
+      <c r="C29" s="9">
+        <f>B29/'India Population'!B50</f>
+        <v>5869.7340220394744</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="9">
+        <v>2045</v>
+      </c>
+      <c r="F29" s="9">
+        <v>30511365941317.828</v>
+      </c>
+      <c r="G29" s="9">
+        <v>381390297</v>
+      </c>
+      <c r="H29" s="9">
+        <f t="shared" si="0"/>
+        <v>80000.372797417629</v>
+      </c>
+      <c r="J29" s="9">
+        <f t="shared" si="1"/>
+        <v>7.3371333367448333E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A30" s="9">
+        <v>2046</v>
+      </c>
+      <c r="B30" s="9">
+        <v>9960866643843.2813</v>
+      </c>
+      <c r="C30" s="9">
+        <f>B30/'India Population'!B51</f>
+        <v>6067.5317490351463</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="9">
+        <v>2046</v>
+      </c>
+      <c r="F30" s="9">
+        <v>31118686167314.816</v>
+      </c>
+      <c r="G30" s="9">
+        <v>382907447</v>
+      </c>
+      <c r="H30" s="9">
+        <f t="shared" si="0"/>
+        <v>81269.472325814582</v>
+      </c>
+      <c r="J30" s="9">
+        <f t="shared" si="1"/>
+        <v>7.4659421002636978E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A31" s="9">
+        <v>2047</v>
+      </c>
+      <c r="B31" s="9">
+        <v>10322253966824.863</v>
+      </c>
+      <c r="C31" s="9">
+        <f>B31/'India Population'!B52</f>
+        <v>6269.217434108552</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="9">
+        <v>2047</v>
+      </c>
+      <c r="F31" s="9">
+        <v>31739925903345.926</v>
+      </c>
+      <c r="G31" s="9">
+        <v>384415207</v>
+      </c>
+      <c r="H31" s="9">
+        <f t="shared" si="0"/>
+        <v>82566.780203744449</v>
+      </c>
+      <c r="J31" s="9">
+        <f t="shared" si="1"/>
+        <v>7.5929053048192377E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A32" s="9">
+        <v>2048</v>
+      </c>
+      <c r="B32" s="9">
+        <v>10690010674077.184</v>
+      </c>
+      <c r="C32" s="9">
+        <f>B32/'India Population'!B53</f>
+        <v>6474.8937149845387</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="9">
+        <v>2048</v>
+      </c>
+      <c r="F32" s="9">
+        <v>32374800862897.605</v>
+      </c>
+      <c r="G32" s="9">
+        <v>385917628</v>
+      </c>
+      <c r="H32" s="9">
+        <f t="shared" si="0"/>
+        <v>83890.443229241675</v>
+      </c>
+      <c r="J32" s="9">
+        <f t="shared" si="1"/>
+        <v>7.7182733404936713E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A33" s="9">
+        <v>2049</v>
+      </c>
+      <c r="B33" s="9">
+        <v>11064015286229.67</v>
+      </c>
+      <c r="C33" s="9">
+        <f>B33/'India Population'!B54</f>
+        <v>6684.5876400729539</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="9">
+        <v>2049</v>
+      </c>
+      <c r="F33" s="9">
+        <v>33022858293374.176</v>
+      </c>
+      <c r="G33" s="9">
+        <v>387418788</v>
+      </c>
+      <c r="H33" s="9">
+        <f t="shared" si="0"/>
+        <v>85238.143621919997</v>
+      </c>
+      <c r="J33" s="9">
+        <f t="shared" si="1"/>
+        <v>7.8422492044441156E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A34" s="9">
+        <v>2050</v>
+      </c>
+      <c r="B34" s="9">
+        <v>11444013800962.033</v>
+      </c>
+      <c r="C34" s="9">
+        <f>B34/'India Population'!B55</f>
+        <v>6898.2312007525315</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="9">
+        <v>2050</v>
+      </c>
+      <c r="F34" s="9">
+        <v>33683645442179.992</v>
+      </c>
+      <c r="G34" s="9">
+        <v>388922201</v>
+      </c>
+      <c r="H34" s="9">
+        <f t="shared" si="0"/>
+        <v>86607.669491667795</v>
+      </c>
+      <c r="J34" s="9">
+        <f t="shared" si="1"/>
+        <v>7.9649195518604568E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D35" s="12"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D36" s="12"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D37" s="12"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D38" s="12"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D39" s="12"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D40" s="12"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D41" s="12"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D42" s="12"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D43" s="12"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D44" s="12"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D45" s="12"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D46" s="12"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D47" s="12"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D48" s="12"/>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D49" s="12"/>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D50" s="12"/>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D51" s="12"/>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D52" s="12"/>
+      <c r="E52" s="13"/>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D53" s="12"/>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D54" s="12"/>
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D55" s="12"/>
+    </row>
+    <row r="56" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D56" s="12"/>
+    </row>
+    <row r="57" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D57" s="12"/>
+    </row>
+    <row r="58" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D58" s="12"/>
+    </row>
+    <row r="59" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D62" s="14"/>
+    </row>
+    <row r="63" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D65" s="14"/>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D66" s="14"/>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D67" s="14"/>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D68" s="14"/>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D69" s="14"/>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D70" s="14"/>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D71" s="14"/>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D72" s="14"/>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D73" s="14"/>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D74" s="14"/>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D75" s="14"/>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D76" s="14"/>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D77" s="14"/>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D78" s="14"/>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D79" s="14"/>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D80" s="14"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D81" s="14"/>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D82" s="14"/>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D83" s="14"/>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D84" s="14"/>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D85" s="14"/>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D86" s="14"/>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D87" s="14"/>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D88" s="14"/>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D89" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -839,7 +2218,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -847,7 +2226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -855,7 +2234,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -863,7 +2242,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2000</v>
       </c>
@@ -871,7 +2250,7 @@
         <v>1053050912</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2001</v>
       </c>
@@ -879,7 +2258,7 @@
         <v>1071477855</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2002</v>
       </c>
@@ -887,7 +2266,7 @@
         <v>1089807112</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2003</v>
       </c>
@@ -895,7 +2274,7 @@
         <v>1108027848</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2004</v>
       </c>
@@ -903,7 +2282,7 @@
         <v>1126135777</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2005</v>
       </c>
@@ -911,7 +2290,7 @@
         <v>1144118674</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2006</v>
       </c>
@@ -919,7 +2298,7 @@
         <v>1161977719</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2007</v>
       </c>
@@ -927,7 +2306,7 @@
         <v>1179681239</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2008</v>
       </c>
@@ -935,7 +2314,7 @@
         <v>1197146906</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2009</v>
       </c>
@@ -943,7 +2322,7 @@
         <v>1214270132</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2010</v>
       </c>
@@ -951,7 +2330,7 @@
         <v>1230980691</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2011</v>
       </c>
@@ -959,7 +2338,7 @@
         <v>1247236029</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2012</v>
       </c>
@@ -967,7 +2346,7 @@
         <v>1263065852</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2013</v>
       </c>
@@ -975,7 +2354,7 @@
         <v>1278562207</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2014</v>
       </c>
@@ -983,7 +2362,7 @@
         <v>1293859294</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2015</v>
       </c>
@@ -991,7 +2370,7 @@
         <v>1309053980</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2016</v>
       </c>
@@ -999,7 +2378,7 @@
         <v>1324171354</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2017</v>
       </c>
@@ -1007,7 +2386,7 @@
         <v>1339180000</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -1015,7 +2394,7 @@
         <v>1354052000</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2019</v>
       </c>
@@ -1023,7 +2402,7 @@
         <v>1368738000</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2020</v>
       </c>
@@ -1031,7 +2410,7 @@
         <v>1383198000</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2021</v>
       </c>
@@ -1039,7 +2418,7 @@
         <v>1397423000</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2022</v>
       </c>
@@ -1047,7 +2426,7 @@
         <v>1411415000</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2023</v>
       </c>
@@ -1055,7 +2434,7 @@
         <v>1425158000</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2024</v>
       </c>
@@ -1063,7 +2442,7 @@
         <v>1438635000</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2025</v>
       </c>
@@ -1071,7 +2450,7 @@
         <v>1451829000</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>2026</v>
       </c>
@@ -1079,7 +2458,7 @@
         <v>1464726000</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2027</v>
       </c>
@@ -1087,7 +2466,7 @@
         <v>1477312000</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>2028</v>
       </c>
@@ -1095,7 +2474,7 @@
         <v>1489565000</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>2029</v>
       </c>
@@ -1103,7 +2482,7 @@
         <v>1501462000</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>2030</v>
       </c>
@@ -1111,7 +2490,7 @@
         <v>1512985000</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>2031</v>
       </c>
@@ -1119,7 +2498,7 @@
         <v>1524124000</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>2032</v>
       </c>
@@ -1127,7 +2506,7 @@
         <v>1534869000</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>2033</v>
       </c>
@@ -1135,7 +2514,7 @@
         <v>1545204000</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>2034</v>
       </c>
@@ -1143,7 +2522,7 @@
         <v>1555108000</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>2035</v>
       </c>
@@ -1151,7 +2530,7 @@
         <v>1564570000</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>2036</v>
       </c>
@@ -1159,7 +2538,7 @@
         <v>1573582000</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>2037</v>
       </c>
@@ -1167,7 +2546,7 @@
         <v>1582147000</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>2038</v>
       </c>
@@ -1175,7 +2554,7 @@
         <v>1590282000</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>2039</v>
       </c>
@@ -1183,7 +2562,7 @@
         <v>1598011000</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>2040</v>
       </c>
@@ -1191,7 +2570,7 @@
         <v>1605356000</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>2041</v>
       </c>
@@ -1199,7 +2578,7 @@
         <v>1612320000</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>2042</v>
       </c>
@@ -1207,7 +2586,7 @@
         <v>1618906000</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>2043</v>
       </c>
@@ -1215,7 +2594,7 @@
         <v>1625123000</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>2044</v>
       </c>
@@ -1223,7 +2602,7 @@
         <v>1630984000</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>2045</v>
       </c>
@@ -1231,7 +2610,7 @@
         <v>1636496000</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>2046</v>
       </c>
@@ -1239,7 +2618,7 @@
         <v>1641667000</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>2047</v>
       </c>
@@ -1247,7 +2626,7 @@
         <v>1646498000</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>2048</v>
       </c>
@@ -1255,7 +2634,7 @@
         <v>1650994000</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>2049</v>
       </c>
@@ -1263,12 +2642,425 @@
         <v>1655153000</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>2050</v>
       </c>
       <c r="B55">
         <v>1658978000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.796875" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" customWidth="1"/>
+    <col min="11" max="11" width="15.53125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6">
+        <v>2018</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="18">
+        <v>2019</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>945151.09566537838</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="20">
+        <v>4826857.7031238601</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="23">
+        <f>B7/G7</f>
+        <v>0.19581084709700322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <v>697021.3098933202</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="20">
+        <v>984823.77163077577</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="23">
+        <f>B8/G8</f>
+        <v>0.70776247484270038</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9">
+        <v>1454078.6087159668</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="20">
+        <v>6536304.2342993338</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="23">
+        <f>B9/G9</f>
+        <v>0.2224618923161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10">
+        <v>1454078.6087159668</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="20">
+        <v>3852353.6146789663</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="23">
+        <f>B10/G10</f>
+        <v>0.37745200834507026</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>872966.20775969967</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="22">
+        <v>1430841.0673437433</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="23">
+        <f>B11/G11</f>
+        <v>0.61010703961712576</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12">
+        <v>800219.02377972472</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="22">
+        <v>1284591.5</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="23">
+        <f>B12/G12</f>
+        <v>0.62293657071506758</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13">
+        <v>2715972.8030847143</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="22">
+        <v>6831836.4795198459</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="23">
+        <f>B13/G13</f>
+        <v>0.39754651786917444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14">
+        <v>796946.92977702012</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="22">
+        <v>3975449.4447489739</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="23">
+        <f>B14/G14</f>
+        <v>0.20046712726523996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15">
+        <v>702939.56545554136</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="22">
+        <v>6123685.9119942319</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="24">
+        <f>B15/G15</f>
+        <v>0.11479027101614082</v>
+      </c>
+      <c r="M15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16">
+        <v>651000</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="22">
+        <v>894445.15254095697</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="23">
+        <f>B16/G16</f>
+        <v>0.72782551076567037</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17">
+        <v>651000</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="22">
+        <v>894445.15254095697</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="23">
+        <f>B17/G17</f>
+        <v>0.72782551076567037</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18">
+        <v>1095375.5660881668</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="22">
+        <v>5594049.4733957509</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="L18" s="23">
+        <f>B18/G18</f>
+        <v>0.19581084709700322</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19">
+        <v>2839145.5176191349</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="22">
+        <v>4423249.1398915872</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="23">
+        <f>B19/G19</f>
+        <v>0.64186877741386317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20">
+        <v>651000</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="22">
+        <v>894445.15254095697</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L20" s="23">
+        <f>B20/G20</f>
+        <v>0.72782551076567037</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21">
+        <v>651000</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="20">
+        <v>894445.15254095697</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" s="23">
+        <f>B21/G21</f>
+        <v>0.72782551076567037</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22">
+        <v>2974456.819426693</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="20">
+        <v>1398186</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L22" s="23">
+        <f>B22/G22</f>
+        <v>2.1273684756010236</v>
+      </c>
+      <c r="M22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="8">
+        <f>AVERAGE(L7:L14,L16:L21)</f>
+        <v>0.50596615326007366</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/scaling-factors.xlsx
+++ b/InputData/scaling-factors.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -634,7 +634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1001,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN89"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1058,11 +1058,11 @@
         <v>2019</v>
       </c>
       <c r="B3" s="9">
-        <v>2582035401443.7754</v>
+        <v>3095729204374.6685</v>
       </c>
       <c r="C3" s="9">
         <f>B3/'India Population'!B24</f>
-        <v>1886.435096741506</v>
+        <v>2261.7397956180571</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="9">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="J3" s="9">
         <f>C3/H3</f>
-        <v>3.2347480211350491E-2</v>
+        <v>3.878298458735905E-2</v>
       </c>
       <c r="AM3" s="9">
         <v>2049</v>
@@ -1094,11 +1094,11 @@
         <v>2020</v>
       </c>
       <c r="B4" s="9">
-        <v>2781383385961.4736</v>
+        <v>3334737305177.4668</v>
       </c>
       <c r="C4" s="9">
         <f>B4/'India Population'!B25</f>
-        <v>2010.8353149451298</v>
+        <v>2410.8893341209769</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="9">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="J4" s="9">
         <f t="shared" ref="J4:J34" si="1">C4/H4</f>
-        <v>3.4177758111027641E-2</v>
+        <v>4.0977394758104135E-2</v>
       </c>
       <c r="AM4" s="9">
         <v>387418788</v>
@@ -1130,11 +1130,11 @@
         <v>2021</v>
       </c>
       <c r="B5" s="9">
-        <v>2984552111455.7139</v>
+        <v>3578326280207.1709</v>
       </c>
       <c r="C5" s="9">
         <f>B5/'India Population'!B26</f>
-        <v>2135.7542501130392</v>
+        <v>2560.660787898275</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="9">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="J5" s="9">
         <f t="shared" si="1"/>
-        <v>3.6049625710970833E-2</v>
+        <v>4.3221668865510501E-2</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.45">
@@ -1160,11 +1160,11 @@
         <v>2022</v>
       </c>
       <c r="B6" s="9">
-        <v>3191138824694.7207</v>
+        <v>3826013248810.376</v>
       </c>
       <c r="C6" s="9">
         <f>B6/'India Population'!B27</f>
-        <v>2260.9500569957954</v>
+        <v>2710.7641967885957</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="9">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="J6" s="9">
         <f t="shared" si="1"/>
-        <v>3.7876484138408835E-2</v>
+        <v>4.5411979262848769E-2</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.45">
@@ -1190,11 +1190,11 @@
         <v>2023</v>
       </c>
       <c r="B7" s="9">
-        <v>3401383723524.8545</v>
+        <v>4078086195995.8813</v>
       </c>
       <c r="C7" s="9">
         <f>B7/'India Population'!B28</f>
-        <v>2386.6713189168181</v>
+        <v>2861.4975995615091</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="9">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="J7" s="9">
         <f t="shared" si="1"/>
-        <v>3.9641754872705395E-2</v>
+        <v>4.7528449146543646E-2</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.45">
@@ -1220,11 +1220,11 @@
         <v>2024</v>
       </c>
       <c r="B8" s="9">
-        <v>3616355274228.2031</v>
+        <v>4335826158526.9712</v>
       </c>
       <c r="C8" s="9">
         <f>B8/'India Population'!B29</f>
-        <v>2513.7406459791423</v>
+        <v>3013.8472639182082</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="9">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="J8" s="9">
         <f t="shared" si="1"/>
-        <v>4.1356957567841302E-2</v>
+        <v>4.9584889996187043E-2</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.45">
@@ -1250,11 +1250,11 @@
         <v>2025</v>
       </c>
       <c r="B9" s="9">
-        <v>3837063964296.3535</v>
+        <v>4600444659544.1143</v>
       </c>
       <c r="C9" s="9">
         <f>B9/'India Population'!B30</f>
-        <v>2642.9172886726697</v>
+        <v>3168.7234926042352</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="9">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="J9" s="9">
         <f t="shared" si="1"/>
-        <v>4.3040448056654933E-2</v>
+        <v>5.1603309522345826E-2</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.45">
@@ -1280,11 +1280,11 @@
         <v>2026</v>
       </c>
       <c r="B10" s="9">
-        <v>4063794165892.2388</v>
+        <v>4872282646816.3506</v>
       </c>
       <c r="C10" s="9">
         <f>B10/'India Population'!B31</f>
-        <v>2774.4398378210249</v>
+        <v>3326.4123438898132</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="9">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="J10" s="9">
         <f t="shared" si="1"/>
-        <v>4.4701062043683445E-2</v>
+        <v>5.3594301285651111E-2</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.45">
@@ -1310,11 +1310,11 @@
         <v>2027</v>
       </c>
       <c r="B11" s="9">
-        <v>4297009709339.8657</v>
+        <v>5151896229326.1904</v>
       </c>
       <c r="C11" s="9">
         <f>B11/'India Population'!B32</f>
-        <v>2908.6677082023743</v>
+        <v>3487.344737825314</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="9">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="J11" s="9">
         <f t="shared" si="1"/>
-        <v>4.634660513221605E-2</v>
+        <v>5.5567223807696617E-2</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.45">
@@ -1340,11 +1340,11 @@
         <v>2028</v>
       </c>
       <c r="B12" s="9">
-        <v>4536884531010.7373</v>
+        <v>5439493947942.0752</v>
       </c>
       <c r="C12" s="9">
         <f>B12/'India Population'!B33</f>
-        <v>3045.7781506753563</v>
+        <v>3651.7331891807844</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="9">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="J12" s="9">
         <f t="shared" si="1"/>
-        <v>4.7981440958304568E-2</v>
+        <v>5.7527308866309787E-2</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.45">
@@ -1370,11 +1370,11 @@
         <v>2029</v>
       </c>
       <c r="B13" s="9">
-        <v>4783506979537.9971</v>
+        <v>5735181728184.4834</v>
       </c>
       <c r="C13" s="9">
         <f>B13/'India Population'!B34</f>
-        <v>3185.8994630153788</v>
+        <v>3819.7315204677066</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="9">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="J13" s="9">
         <f t="shared" si="1"/>
-        <v>4.9608553623659568E-2</v>
+        <v>5.9478134247763048E-2</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.45">
@@ -1400,11 +1400,11 @@
         <v>2030</v>
       </c>
       <c r="B14" s="9">
-        <v>5036890859395.5742</v>
+        <v>6038976120915.9902</v>
       </c>
       <c r="C14" s="9">
         <f>B14/'India Population'!B35</f>
-        <v>3329.1082591007671</v>
+        <v>3991.4315878319944</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="9">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="J14" s="9">
         <f t="shared" si="1"/>
-        <v>5.122915321648211E-2</v>
+        <v>6.1421150786302038E-2</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.45">
@@ -1430,11 +1430,11 @@
         <v>2031</v>
       </c>
       <c r="B15" s="9">
-        <v>5297025127004.3252</v>
+        <v>6350863885446.5352</v>
       </c>
       <c r="C15" s="9">
         <f>B15/'India Population'!B36</f>
-        <v>3475.4554924693302</v>
+        <v>4166.8944819755707</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="9">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="J15" s="9">
         <f t="shared" si="1"/>
-        <v>5.2842769087449865E-2</v>
+        <v>6.3355794197311882E-2</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.45">
@@ -1460,11 +1460,11 @@
         <v>2032</v>
       </c>
       <c r="B16" s="9">
-        <v>5563697193465.7471</v>
+        <v>6670590138492.4668</v>
       </c>
       <c r="C16" s="9">
         <f>B16/'India Population'!B37</f>
-        <v>3624.8677857626594</v>
+        <v>4346.0322271753921</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="9">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="J16" s="9">
         <f t="shared" si="1"/>
-        <v>5.4445679520715301E-2</v>
+        <v>6.5277602332662013E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
@@ -1490,11 +1490,11 @@
         <v>2033</v>
       </c>
       <c r="B17" s="9">
-        <v>5836931906832.9121</v>
+        <v>6998184671606.4209</v>
       </c>
       <c r="C17" s="9">
         <f>B17/'India Population'!B38</f>
-        <v>3777.4506840733729</v>
+        <v>4528.9713666327689</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="9">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="J17" s="9">
         <f t="shared" si="1"/>
-        <v>5.6036100363190719E-2</v>
+        <v>6.7184436083486759E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
@@ -1520,11 +1520,11 @@
         <v>2034</v>
       </c>
       <c r="B18" s="9">
-        <v>6116643679367.4629</v>
+        <v>7333544869440.4346</v>
       </c>
       <c r="C18" s="9">
         <f>B18/'India Population'!B39</f>
-        <v>3933.2597346084408</v>
+        <v>4715.7784986254555</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="9">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="J18" s="9">
         <f t="shared" si="1"/>
-        <v>5.7611406102887223E-2</v>
+        <v>6.9073147594363268E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
@@ -1550,11 +1550,11 @@
         <v>2035</v>
       </c>
       <c r="B19" s="9">
-        <v>6402664096487.4658</v>
+        <v>7676468811471.0947</v>
       </c>
       <c r="C19" s="9">
         <f>B19/'India Population'!B40</f>
-        <v>4092.2835644857473</v>
+        <v>4906.4399876458674</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="9">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="J19" s="9">
         <f t="shared" si="1"/>
-        <v>5.9168125911081733E-2</v>
+        <v>7.0939575518070883E-2</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
@@ -1580,11 +1580,11 @@
         <v>2036</v>
       </c>
       <c r="B20" s="9">
-        <v>6694838548084.9199</v>
+        <v>8026771128037.5654</v>
       </c>
       <c r="C20" s="9">
         <f>B20/'India Population'!B41</f>
-        <v>4254.5215616885043</v>
+        <v>5100.9550999169824</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="9">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="J20" s="9">
         <f t="shared" si="1"/>
-        <v>6.0703172185365438E-2</v>
+        <v>7.2780017976260811E-2</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
@@ -1610,11 +1610,11 @@
         <v>2037</v>
       </c>
       <c r="B21" s="9">
-        <v>6993194643107.6826</v>
+        <v>8384484920864.9961</v>
       </c>
       <c r="C21" s="9">
         <f>B21/'India Population'!B42</f>
-        <v>4420.0663042736751</v>
+        <v>5299.4348318234624</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="9">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="J21" s="9">
         <f t="shared" si="1"/>
-        <v>6.2214778248645256E-2</v>
+        <v>7.4592356812896651E-2</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
@@ -1640,11 +1640,11 @@
         <v>2038</v>
       </c>
       <c r="B22" s="9">
-        <v>7297801403925.3984</v>
+        <v>8749692944266.2607</v>
       </c>
       <c r="C22" s="9">
         <f>B22/'India Population'!B43</f>
-        <v>4588.9983059139186</v>
+        <v>5501.9757151664053</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="9">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="J22" s="9">
         <f t="shared" si="1"/>
-        <v>6.3701549709422003E-2</v>
+        <v>7.6374920223446233E-2</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
@@ -1670,11 +1670,11 @@
         <v>2039</v>
       </c>
       <c r="B23" s="9">
-        <v>7608661591432.8525</v>
+        <v>9122398508413.873</v>
       </c>
       <c r="C23" s="9">
         <f>B23/'India Population'!B44</f>
-        <v>4761.3324260176259</v>
+        <v>5708.5955656211836</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="9">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="J23" s="9">
         <f t="shared" si="1"/>
-        <v>6.5162005816008756E-2</v>
+        <v>7.8125932861901864E-2</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
@@ -1700,11 +1700,11 @@
         <v>2040</v>
       </c>
       <c r="B24" s="9">
-        <v>7925719987734.3281</v>
+        <v>9502535409857.5332</v>
       </c>
       <c r="C24" s="9">
         <f>B24/'India Population'!B45</f>
-        <v>4937.0482234061028</v>
+        <v>5919.2698752535471</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="9">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="J24" s="9">
         <f t="shared" si="1"/>
-        <v>6.6594742931451262E-2</v>
+        <v>7.9843711838900711E-2</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
@@ -1730,11 +1730,11 @@
         <v>2041</v>
       </c>
       <c r="B25" s="9">
-        <v>8248926896723.6846</v>
+        <v>9890044065491.9766</v>
       </c>
       <c r="C25" s="9">
         <f>B25/'India Population'!B46</f>
-        <v>5116.1846883519929</v>
+        <v>6134.0453914185628</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="9">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="J25" s="9">
         <f t="shared" si="1"/>
-        <v>6.7999503560444027E-2</v>
+        <v>8.152794843065965E-2</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
@@ -1760,11 +1760,11 @@
         <v>2042</v>
       </c>
       <c r="B26" s="9">
-        <v>8578450732982.8516</v>
+        <v>10285126395840.611</v>
       </c>
       <c r="C26" s="9">
         <f>B26/'India Population'!B47</f>
-        <v>5298.9183639957182</v>
+        <v>6353.1337803681072</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="9">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="J26" s="9">
         <f t="shared" si="1"/>
-        <v>6.9377833044201934E-2</v>
+        <v>8.3180495422747414E-2</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
@@ -1790,11 +1790,11 @@
         <v>2043</v>
       </c>
       <c r="B27" s="9">
-        <v>8914448867514.6172</v>
+        <v>10687971080736.789</v>
       </c>
       <c r="C27" s="9">
         <f>B27/'India Population'!B48</f>
-        <v>5485.3994851556572</v>
+        <v>6576.7151660131503</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="9">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="J27" s="9">
         <f t="shared" si="1"/>
-        <v>7.0731590543308034E-2</v>
+        <v>8.4803581854204002E-2</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
@@ -1820,11 +1820,11 @@
         <v>2044</v>
       </c>
       <c r="B28" s="9">
-        <v>9256940626582.4805</v>
+        <v>11098601291388.115</v>
       </c>
       <c r="C28" s="9">
         <f>B28/'India Population'!B49</f>
-        <v>5675.6783797894277</v>
+        <v>6804.8498890167621</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="9">
@@ -1842,7 +1842,7 @@
       </c>
       <c r="J28" s="9">
         <f t="shared" si="1"/>
-        <v>7.2062352618845305E-2</v>
+        <v>8.6399097941633099E-2</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
@@ -1850,11 +1850,11 @@
         <v>2045</v>
       </c>
       <c r="B29" s="9">
-        <v>9605796248131.5117</v>
+        <v>11516861449686.387</v>
       </c>
       <c r="C29" s="9">
         <f>B29/'India Population'!B50</f>
-        <v>5869.7340220394744</v>
+        <v>7037.5127404444538</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="9">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="J29" s="9">
         <f t="shared" si="1"/>
-        <v>7.3371333367448333E-2</v>
+        <v>8.796849932518841E-2</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
@@ -1880,11 +1880,11 @@
         <v>2046</v>
       </c>
       <c r="B30" s="9">
-        <v>9960866643843.2813</v>
+        <v>11942572806315.797</v>
       </c>
       <c r="C30" s="9">
         <f>B30/'India Population'!B51</f>
-        <v>6067.5317490351463</v>
+        <v>7274.6621612761883</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="9">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="J30" s="9">
         <f t="shared" si="1"/>
-        <v>7.4659421002636978E-2</v>
+        <v>8.9512850927733312E-2</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
@@ -1910,11 +1910,11 @@
         <v>2047</v>
       </c>
       <c r="B31" s="9">
-        <v>10322253966824.863</v>
+        <v>12375857837659.4</v>
       </c>
       <c r="C31" s="9">
         <f>B31/'India Population'!B52</f>
-        <v>6269.217434108552</v>
+        <v>7516.4730462225889</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="9">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="J31" s="9">
         <f t="shared" si="1"/>
-        <v>7.5929053048192377E-2</v>
+        <v>9.103507521638482E-2</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
@@ -1940,11 +1940,11 @@
         <v>2048</v>
       </c>
       <c r="B32" s="9">
-        <v>10690010674077.184</v>
+        <v>12816779436994.98</v>
       </c>
       <c r="C32" s="9">
         <f>B32/'India Population'!B53</f>
-        <v>6474.8937149845387</v>
+        <v>7763.068452698787</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="9">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="J32" s="9">
         <f t="shared" si="1"/>
-        <v>7.7182733404936713E-2</v>
+        <v>9.253817424095831E-2</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
@@ -1970,11 +1970,11 @@
         <v>2049</v>
       </c>
       <c r="B33" s="9">
-        <v>11064015286229.67</v>
+        <v>13265191956731.877</v>
       </c>
       <c r="C33" s="9">
         <f>B33/'India Population'!B54</f>
-        <v>6684.5876400729539</v>
+        <v>8014.4808103733476</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="9">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="J33" s="9">
         <f t="shared" si="1"/>
-        <v>7.8422492044441156E-2</v>
+        <v>9.4024581834186369E-2</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
@@ -2000,11 +2000,11 @@
         <v>2050</v>
       </c>
       <c r="B34" s="9">
-        <v>11444013800962.033</v>
+        <v>13720790860998.717</v>
       </c>
       <c r="C34" s="9">
         <f>B34/'India Population'!B55</f>
-        <v>6898.2312007525315</v>
+        <v>8270.6285803661758</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="9">
@@ -2022,7 +2022,7 @@
       </c>
       <c r="J34" s="9">
         <f t="shared" si="1"/>
-        <v>7.9649195518604568E-2</v>
+        <v>9.5495336947749906E-2</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
@@ -2659,7 +2659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -2726,7 +2726,7 @@
         <v>46</v>
       </c>
       <c r="L7" s="23">
-        <f>B7/G7</f>
+        <f t="shared" ref="L7:L22" si="0">B7/G7</f>
         <v>0.19581084709700322</v>
       </c>
     </row>
@@ -2747,7 +2747,7 @@
         <v>47</v>
       </c>
       <c r="L8" s="23">
-        <f>B8/G8</f>
+        <f t="shared" si="0"/>
         <v>0.70776247484270038</v>
       </c>
     </row>
@@ -2768,7 +2768,7 @@
         <v>48</v>
       </c>
       <c r="L9" s="23">
-        <f>B9/G9</f>
+        <f t="shared" si="0"/>
         <v>0.2224618923161</v>
       </c>
     </row>
@@ -2789,7 +2789,7 @@
         <v>49</v>
       </c>
       <c r="L10" s="23">
-        <f>B10/G10</f>
+        <f t="shared" si="0"/>
         <v>0.37745200834507026</v>
       </c>
     </row>
@@ -2810,7 +2810,7 @@
         <v>50</v>
       </c>
       <c r="L11" s="23">
-        <f>B11/G11</f>
+        <f t="shared" si="0"/>
         <v>0.61010703961712576</v>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
         <v>51</v>
       </c>
       <c r="L12" s="23">
-        <f>B12/G12</f>
+        <f t="shared" si="0"/>
         <v>0.62293657071506758</v>
       </c>
     </row>
@@ -2852,7 +2852,7 @@
         <v>52</v>
       </c>
       <c r="L13" s="23">
-        <f>B13/G13</f>
+        <f t="shared" si="0"/>
         <v>0.39754651786917444</v>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
         <v>53</v>
       </c>
       <c r="L14" s="23">
-        <f>B14/G14</f>
+        <f t="shared" si="0"/>
         <v>0.20046712726523996</v>
       </c>
     </row>
@@ -2897,7 +2897,7 @@
         <v>54</v>
       </c>
       <c r="L15" s="24">
-        <f>B15/G15</f>
+        <f t="shared" si="0"/>
         <v>0.11479027101614082</v>
       </c>
       <c r="M15" t="s">
@@ -2921,7 +2921,7 @@
         <v>55</v>
       </c>
       <c r="L16" s="23">
-        <f>B16/G16</f>
+        <f t="shared" si="0"/>
         <v>0.72782551076567037</v>
       </c>
     </row>
@@ -2942,7 +2942,7 @@
         <v>56</v>
       </c>
       <c r="L17" s="23">
-        <f>B17/G17</f>
+        <f t="shared" si="0"/>
         <v>0.72782551076567037</v>
       </c>
     </row>
@@ -2963,7 +2963,7 @@
         <v>57</v>
       </c>
       <c r="L18" s="23">
-        <f>B18/G18</f>
+        <f t="shared" si="0"/>
         <v>0.19581084709700322</v>
       </c>
     </row>
@@ -2984,7 +2984,7 @@
         <v>58</v>
       </c>
       <c r="L19" s="23">
-        <f>B19/G19</f>
+        <f t="shared" si="0"/>
         <v>0.64186877741386317</v>
       </c>
     </row>
@@ -3005,11 +3005,11 @@
         <v>59</v>
       </c>
       <c r="L20" s="23">
-        <f>B20/G20</f>
+        <f t="shared" si="0"/>
         <v>0.72782551076567037</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -3026,11 +3026,11 @@
         <v>60</v>
       </c>
       <c r="L21" s="23">
-        <f>B21/G21</f>
+        <f t="shared" si="0"/>
         <v>0.72782551076567037</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>61</v>
       </c>
       <c r="L22" s="23">
-        <f>B22/G22</f>
+        <f t="shared" si="0"/>
         <v>2.1273684756010236</v>
       </c>
       <c r="M22" t="s">
